--- a/2-mindados/Materiais/Cronograma_reduzido.xlsx
+++ b/2-mindados/Materiais/Cronograma_reduzido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Disciplinas\2 - Intro  Mineração de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Arquivos\UFPR\Site\2-mindados\Materiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA39D2-C1BA-4150-9838-4F1A5D4CCE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C3ED56-EAD5-4927-A248-AD0EE0868B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
